--- a/data/input/absenteeism_data_44.xlsx
+++ b/data/input/absenteeism_data_44.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54278</v>
+        <v>49254</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Carvalho</t>
+          <t>João Felipe da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,109 +494,109 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>9544.530000000001</v>
+        <v>3631.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>57789</v>
+        <v>80638</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lívia Ramos</t>
+          <t>Isadora Vieira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>5034.09</v>
+        <v>8885.809999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17198</v>
+        <v>8210</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nathan Jesus</t>
+          <t>Luigi Duarte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>3328.23</v>
+        <v>9164.559999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94446</v>
+        <v>5985</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Eduarda Nunes</t>
+          <t>Lavínia Fernandes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>2840.32</v>
+        <v>7672.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18650</v>
+        <v>35479</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Pedro Lucas Rezende</t>
+          <t>Stella Farias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,114 +610,114 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>11692.2</v>
+        <v>8233.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68194</v>
+        <v>89713</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Luiz Gustavo Castro</t>
+          <t>Raul Alves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45083</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>3565.65</v>
+        <v>4414.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81388</v>
+        <v>447</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lara Souza</t>
+          <t>Ana Carolina Nascimento</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>3289.01</v>
+        <v>12136.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>24603</v>
+        <v>28769</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dra. Letícia da Conceição</t>
+          <t>Natália Ribeiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>5179.37</v>
+        <v>7965.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>86534</v>
+        <v>22825</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bruno Caldeira</t>
+          <t>Milena Almeida</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>10061.68</v>
+        <v>10284.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>97955</v>
+        <v>33253</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Daniel Rezende</t>
+          <t>Arthur Cardoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45082</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>9373.459999999999</v>
+        <v>12032.58</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_44.xlsx
+++ b/data/input/absenteeism_data_44.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49254</v>
+        <v>81597</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Felipe da Costa</t>
+          <t>Maysa da Mata</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,274 +494,274 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45089</v>
+        <v>45079</v>
       </c>
       <c r="G2" t="n">
-        <v>3631.9</v>
+        <v>6014.63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80638</v>
+        <v>31291</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isadora Vieira</t>
+          <t>Luiz Felipe Sales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>8885.809999999999</v>
+        <v>3531.09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8210</v>
+        <v>87000</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luigi Duarte</t>
+          <t>Luna Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>9164.559999999999</v>
+        <v>4642.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5985</v>
+        <v>70683</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lavínia Fernandes</t>
+          <t>Lavínia Cardoso</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>7672.78</v>
+        <v>6322.74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35479</v>
+        <v>51338</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stella Farias</t>
+          <t>Sr. Kevin Melo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>8233.24</v>
+        <v>5131.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>89713</v>
+        <v>7489</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Raul Alves</t>
+          <t>Ana Júlia da Mata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>4414.73</v>
+        <v>7379.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>447</v>
+        <v>40813</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Carolina Nascimento</t>
+          <t>Sarah da Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>12136.98</v>
+        <v>12287.83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>28769</v>
+        <v>83412</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Natália Ribeiro</t>
+          <t>Bernardo Fernandes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>7965.95</v>
+        <v>4584.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22825</v>
+        <v>48805</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Milena Almeida</t>
+          <t>Mariane Ramos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>10284.57</v>
+        <v>4844.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33253</v>
+        <v>58195</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arthur Cardoso</t>
+          <t>Isabella Melo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>12032.58</v>
+        <v>5533.65</v>
       </c>
     </row>
   </sheetData>
